--- a/output/fit_clients/fit_round_295.xlsx
+++ b/output/fit_clients/fit_round_295.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1541843107.094891</v>
+        <v>2360284916.34063</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08920119413563975</v>
+        <v>0.1126824906443124</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03366921291704719</v>
+        <v>0.03492916339382077</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>770921487.5698184</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2300859531.592667</v>
+        <v>2128715122.223512</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1306672465125102</v>
+        <v>0.1425063527334888</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04049017073775719</v>
+        <v>0.04838144868451229</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1150429852.453348</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4721812017.140194</v>
+        <v>3791444850.786304</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1653938038067627</v>
+        <v>0.1489272077713305</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02518109362202267</v>
+        <v>0.03057702265084358</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>106</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2360906073.884821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2982605227.964401</v>
+        <v>3571371052.260557</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1058146273531202</v>
+        <v>0.09093831152742626</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04057129553878032</v>
+        <v>0.05081262583671569</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1491302685.006382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2390029881.237545</v>
+        <v>2375945413.332269</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1138353673059925</v>
+        <v>0.1115170839625311</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0383238724716814</v>
+        <v>0.05542319564048473</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>55</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1195014928.003871</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3070150939.902812</v>
+        <v>2232283389.336009</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09584266185372804</v>
+        <v>0.06880687410341094</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04480123660819674</v>
+        <v>0.03819129151446258</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>93</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1535075428.100901</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3141552026.530076</v>
+        <v>3880334357.807659</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1402695959466979</v>
+        <v>0.1375620896587858</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03001844004851665</v>
+        <v>0.03107059174075828</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>93</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1570776085.2474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1522081295.021999</v>
+        <v>1921367937.34446</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1555560714054894</v>
+        <v>0.1577846263243994</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02345741816349632</v>
+        <v>0.03581028847933634</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>761040740.4358976</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3868009568.281029</v>
+        <v>5498877492.480986</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1628970385560134</v>
+        <v>0.1424373198242161</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05018363045439192</v>
+        <v>0.04653378524918411</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>124</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1934004795.7954</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3748103146.068563</v>
+        <v>3545062309.017634</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1549773832471683</v>
+        <v>0.158914150540487</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04687385900697209</v>
+        <v>0.04058849087091938</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>122</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1874051568.117278</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2630981810.323507</v>
+        <v>2508607138.331516</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1807718682430673</v>
+        <v>0.1817948959802504</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04437520845236974</v>
+        <v>0.05249740056014062</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>100</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1315490889.383219</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4786431349.025105</v>
+        <v>3665764654.668768</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1001592433297526</v>
+        <v>0.08742694492578867</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02507046009378869</v>
+        <v>0.0294570259508849</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>99</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2393215689.498998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2360662567.485343</v>
+        <v>2762628139.538708</v>
       </c>
       <c r="F14" t="n">
-        <v>0.153843138794796</v>
+        <v>0.1639748224133541</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04213060982820834</v>
+        <v>0.04111474741891859</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1180331364.481638</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1679996634.700426</v>
+        <v>1391003965.129755</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09252940478872058</v>
+        <v>0.09971559130374734</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03208706345274191</v>
+        <v>0.03662146980810706</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>839998443.660673</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1838040158.073275</v>
+        <v>1767470532.528789</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07483533569384557</v>
+        <v>0.09838210902698746</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04216641584686005</v>
+        <v>0.05177540902173162</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>57</v>
-      </c>
-      <c r="J16" t="n">
-        <v>919020168.9878112</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4598699889.866335</v>
+        <v>3747618540.582352</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1467852549820193</v>
+        <v>0.1487703314388723</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04191477478237806</v>
+        <v>0.04435556055197765</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>86</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2299349949.949215</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3898450986.229531</v>
+        <v>3586918345.348501</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1266429770586178</v>
+        <v>0.1796142084277693</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02390204453770857</v>
+        <v>0.02741382342048901</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>97</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1949225458.325535</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>997209591.4865835</v>
+        <v>913219163.027438</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1601872251260079</v>
+        <v>0.1880262403642423</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02573044063460342</v>
+        <v>0.01662524005159863</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>498604824.3091615</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1939307008.175236</v>
+        <v>2443037375.839984</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1237216623564449</v>
+        <v>0.1315883782353851</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02772977047788316</v>
+        <v>0.02014107181539163</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>969653536.9047811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2211609510.885365</v>
+        <v>1671145444.879941</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06426077182260513</v>
+        <v>0.09739715439696889</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03817287106455015</v>
+        <v>0.03635873422328742</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1105804771.154152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2659925656.385561</v>
+        <v>3226870591.58799</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1237547721385305</v>
+        <v>0.1305518848802249</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04135237227900949</v>
+        <v>0.03538779343686595</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>81</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1329962910.087676</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1225170505.683117</v>
+        <v>1074453086.210341</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1445473746346501</v>
+        <v>0.1741225176640998</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0435431513910633</v>
+        <v>0.05082906394547159</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>612585285.0834293</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3668704214.424415</v>
+        <v>3167132650.875391</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1449028749259199</v>
+        <v>0.09146180976540232</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02543239340109874</v>
+        <v>0.03512364775473419</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>86</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1834352097.481311</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>903750005.1977377</v>
+        <v>1075502203.725914</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0934444344924231</v>
+        <v>0.1211364689700476</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02654425754806029</v>
+        <v>0.03017218261360028</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>451875088.7340182</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1411945814.737098</v>
+        <v>1137851283.866327</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08403869283755727</v>
+        <v>0.1100672656376852</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03397574285378228</v>
+        <v>0.03301400092530277</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>705972980.2820652</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4141447198.949552</v>
+        <v>4416868296.941689</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1188210189728737</v>
+        <v>0.1401720941301406</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01723341456677254</v>
+        <v>0.02129255782056465</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2070723602.57985</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3371289757.090305</v>
+        <v>3501183497.773277</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1423962518467361</v>
+        <v>0.1005648864436619</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04966443531568677</v>
+        <v>0.03132784750841021</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1685644921.991724</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4106046794.674762</v>
+        <v>3921008383.544607</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1059928682017031</v>
+        <v>0.1120554668927608</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03495079879129476</v>
+        <v>0.03214723270487277</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>130</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2053023406.808678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1681708316.607942</v>
+        <v>2025674980.825726</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1392642691175948</v>
+        <v>0.1006828050335809</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02932027613727724</v>
+        <v>0.03141675185348949</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>840854159.4976498</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1101933505.133613</v>
+        <v>1100508565.883198</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07429071930100223</v>
+        <v>0.09444525347367123</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03680770974660726</v>
+        <v>0.05157219444544111</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>550966727.1212269</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1559960749.993078</v>
+        <v>1794433417.141595</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1008163938608392</v>
+        <v>0.07343461528288574</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02779530132862909</v>
+        <v>0.03397609119174509</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>779980455.7639595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2087771983.187361</v>
+        <v>2782720823.281099</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1433765017019083</v>
+        <v>0.174522017948475</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0592076969497875</v>
+        <v>0.04718407670922076</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1043886064.930446</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1322879026.626334</v>
+        <v>950277616.5388857</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1167814474254618</v>
+        <v>0.1161737970879559</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02318131150027553</v>
+        <v>0.01898859416430983</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>661439498.1856431</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1319368194.402875</v>
+        <v>1227691250.159814</v>
       </c>
       <c r="F35" t="n">
-        <v>0.100675512503243</v>
+        <v>0.07993696361183783</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0398243768886568</v>
+        <v>0.03165902828604801</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>659684045.7703823</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2223581023.329895</v>
+        <v>2054163910.782223</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1545715782846961</v>
+        <v>0.1131460949613294</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02843417224146164</v>
+        <v>0.02860134214301844</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>74</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1111790555.788931</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1871377366.353035</v>
+        <v>2032633729.9211</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08286137698170143</v>
+        <v>0.06888658494051596</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02657318052131938</v>
+        <v>0.03031328662204008</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>77</v>
-      </c>
-      <c r="J37" t="n">
-        <v>935688692.7734561</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1804194577.045587</v>
+        <v>2027522360.230348</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09981572700538334</v>
+        <v>0.1077863232734305</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02667406548629355</v>
+        <v>0.03810800814109731</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>902097294.8100357</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1952836305.635744</v>
+        <v>2099533830.72299</v>
       </c>
       <c r="F39" t="n">
-        <v>0.124465489893379</v>
+        <v>0.1552828678987231</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0323394437699998</v>
+        <v>0.03103485057635211</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>976418154.518732</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1524364990.15783</v>
+        <v>1146920828.171858</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1047866905445578</v>
+        <v>0.1246197568611398</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04909723923028662</v>
+        <v>0.05060419212703911</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>762182455.184644</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2790468126.794932</v>
+        <v>2305331811.054616</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1144276432284417</v>
+        <v>0.1664748955533865</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03736001154602915</v>
+        <v>0.03861746874309503</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>73</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1395234060.287327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4300222006.375931</v>
+        <v>3863910133.970461</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1203134236958257</v>
+        <v>0.1092209101808421</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03899218303246984</v>
+        <v>0.03350144152037721</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>102</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2150111053.121218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2789015406.663698</v>
+        <v>2252951828.191863</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1764072700261599</v>
+        <v>0.1522434242667757</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02582653143507966</v>
+        <v>0.02536978923169315</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>108</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1394507722.932554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2194815145.440472</v>
+        <v>1565623982.423635</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1018897762832437</v>
+        <v>0.08384902675308507</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03346076793830939</v>
+        <v>0.03578808436527507</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1097407717.934592</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2050697737.995589</v>
+        <v>1678875151.590654</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1905818466631229</v>
+        <v>0.192259773743137</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03770669241737717</v>
+        <v>0.05505518463820774</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1025348865.007902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3652622728.124205</v>
+        <v>4542410869.988516</v>
       </c>
       <c r="F46" t="n">
-        <v>0.132435455438773</v>
+        <v>0.1260147750008889</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05448311420948811</v>
+        <v>0.0587493469940845</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>105</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1826311313.718593</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3131910620.388443</v>
+        <v>3928248617.726758</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1998986001711947</v>
+        <v>0.139595677276344</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03772255027004966</v>
+        <v>0.05714136204352388</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>79</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1565955260.135691</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4660223686.620957</v>
+        <v>2939133583.794325</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09536750582038882</v>
+        <v>0.07093342476874365</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02863502894996922</v>
+        <v>0.03006733223883091</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2330111839.284338</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1333714230.761447</v>
+        <v>1896855365.765057</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1654756380310194</v>
+        <v>0.1787518209434098</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03122193350152323</v>
+        <v>0.04485284045221826</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>666857173.251483</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3975687514.437864</v>
+        <v>4181489301.360295</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1773805242263677</v>
+        <v>0.1379884758129016</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04646797852401327</v>
+        <v>0.03799533107085919</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>100</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1987843747.627361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1163579622.149709</v>
+        <v>1050598173.887646</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1279704864555023</v>
+        <v>0.1692823335343841</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05417132242592593</v>
+        <v>0.04692542174669984</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>581789868.530775</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5173764583.476606</v>
+        <v>4225531423.726966</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1172734332778242</v>
+        <v>0.1012022296099562</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04885762419955096</v>
+        <v>0.05433783696495579</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>122</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2586882279.134589</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3788232867.970731</v>
+        <v>3765532410.60689</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1892806607133115</v>
+        <v>0.1402451039147476</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03068788712583494</v>
+        <v>0.02192671258766203</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>85</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1894116412.011793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3947259590.284101</v>
+        <v>3284796509.362936</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1392614598224636</v>
+        <v>0.1625355594792508</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03869255827027868</v>
+        <v>0.04077550319252698</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>97</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1973629855.081395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4310740178.05859</v>
+        <v>3834489942.531424</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1618380618720886</v>
+        <v>0.1680271619852323</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01969197529409944</v>
+        <v>0.03088358710319308</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>82</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2155370077.65363</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1471093429.8227</v>
+        <v>1493110215.940991</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1628638667407285</v>
+        <v>0.1338579836757361</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04636490642136805</v>
+        <v>0.03765779599491344</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>735546761.4644879</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3359696885.607584</v>
+        <v>4017571141.166194</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1126502656348104</v>
+        <v>0.1132020834489011</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01729685568929905</v>
+        <v>0.02096605031957085</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>94</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1679848477.410354</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1337634949.585195</v>
+        <v>1871315053.157068</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1671603540793045</v>
+        <v>0.1752760895419497</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03460732019377415</v>
+        <v>0.03955045517605597</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>668817520.7461846</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5417669415.464911</v>
+        <v>4993287692.823155</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1021309910709135</v>
+        <v>0.08984359398549902</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04270135354391515</v>
+        <v>0.03015927715073465</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>80</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2708834615.305437</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3649151445.168596</v>
+        <v>3738173355.176114</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1656366781967421</v>
+        <v>0.1511373706663771</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02317591296632621</v>
+        <v>0.02933713917445093</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>91</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1824575861.029219</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2821875896.350927</v>
+        <v>3150391453.201206</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1165570328009487</v>
+        <v>0.1350014584406693</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0253813038682193</v>
+        <v>0.02467772320538104</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>101</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1410937945.445506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1612291560.591846</v>
+        <v>1598684206.241326</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1759491334884015</v>
+        <v>0.1733961684726018</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04340622091404937</v>
+        <v>0.04542077436057114</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>806145780.198972</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4856167868.760197</v>
+        <v>4834557292.616808</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1015443073723627</v>
+        <v>0.08513177468646733</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03728047008481161</v>
+        <v>0.03870819132218638</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>84</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2428083958.552314</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3549172745.740452</v>
+        <v>3803678407.518094</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1424477273240382</v>
+        <v>0.1727438531121855</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0346524959214746</v>
+        <v>0.03155178584896656</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>92</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1774586377.011886</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4100677825.553201</v>
+        <v>5116241690.140934</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1684193582711428</v>
+        <v>0.1624322470088189</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01989933277540784</v>
+        <v>0.02392482966527754</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>106</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2050338925.359365</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4320189641.408942</v>
+        <v>5601375019.787398</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1194495541820295</v>
+        <v>0.1261178153202511</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04127197613771823</v>
+        <v>0.03776235333221986</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>86</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2160094811.443506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2432654613.321767</v>
+        <v>3145077032.030252</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07714626195334463</v>
+        <v>0.08883556810689078</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03252798862833117</v>
+        <v>0.03342528280375298</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>94</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1216327372.925811</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4826292009.826348</v>
+        <v>4846351173.536638</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1110833153358295</v>
+        <v>0.1167056464956111</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03484699205818532</v>
+        <v>0.03647173910424637</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2413146050.777343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2005684937.462431</v>
+        <v>1850613275.466802</v>
       </c>
       <c r="F69" t="n">
-        <v>0.144661723047582</v>
+        <v>0.1282895886551121</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05949808873686261</v>
+        <v>0.05181088629101972</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1002842474.446556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2391883374.095846</v>
+        <v>3252974030.229393</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09177421296406427</v>
+        <v>0.1011956861931938</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04037669350545389</v>
+        <v>0.04170964671921901</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>84</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1195941624.471854</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5264187191.787639</v>
+        <v>4658348599.365298</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1574004010572622</v>
+        <v>0.1227134146571683</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02832180319980567</v>
+        <v>0.0304032625711807</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>108</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2632093721.357423</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2107000198.07091</v>
+        <v>1670446951.647446</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1012164352499299</v>
+        <v>0.07069264407423559</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04507922805350375</v>
+        <v>0.03742624937218707</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1053500028.141074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2412363238.529427</v>
+        <v>3300817454.631169</v>
       </c>
       <c r="F73" t="n">
-        <v>0.107198604050382</v>
+        <v>0.08916108666616618</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0349844107448547</v>
+        <v>0.04795056216848851</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>112</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1206181669.044648</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3796347836.153775</v>
+        <v>3123709196.516997</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1515717601335742</v>
+        <v>0.1783598568348969</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02990001502590543</v>
+        <v>0.03221930416633894</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>100</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1898173914.650943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1948145140.135335</v>
+        <v>1817260678.531994</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1395568140627501</v>
+        <v>0.1426886378024891</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02568260584714039</v>
+        <v>0.02860288453262519</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>974072539.1149657</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3831929607.355516</v>
+        <v>5158326946.381955</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09527249286116231</v>
+        <v>0.08043326801065247</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02687367300616241</v>
+        <v>0.02964976107620676</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>68</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1915964781.348632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2137874751.891899</v>
+        <v>2251254481.660273</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1401044439179377</v>
+        <v>0.1185871294698875</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0312224484509904</v>
+        <v>0.01950680263568259</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1068937457.80802</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4269496770.224349</v>
+        <v>3752780070.317734</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1027240404574338</v>
+        <v>0.1332119117162094</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03859503609413772</v>
+        <v>0.04797274453936077</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>102</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2134748331.570932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1837202677.251541</v>
+        <v>1417496652.475936</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1606188451295008</v>
+        <v>0.1766133482944424</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02625068217357741</v>
+        <v>0.03710300833776852</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>918601431.7827289</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4787231960.226383</v>
+        <v>4236340941.687497</v>
       </c>
       <c r="F80" t="n">
-        <v>0.108545755299031</v>
+        <v>0.07315643341723935</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03401883814208234</v>
+        <v>0.03628132899155277</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>62</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2393616018.736979</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4406595029.997832</v>
+        <v>3457716754.676731</v>
       </c>
       <c r="F81" t="n">
-        <v>0.109697177641009</v>
+        <v>0.1347007301912976</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02803520699622119</v>
+        <v>0.02916095511314059</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2203297493.312895</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5122433925.338191</v>
+        <v>4338528259.211337</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1616128032667496</v>
+        <v>0.1919926065045317</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01916820269775574</v>
+        <v>0.0245174985573926</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>105</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2561216939.784297</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2413698764.143835</v>
+        <v>1951351587.895697</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09990914828956188</v>
+        <v>0.09616954276088996</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0409939638440583</v>
+        <v>0.02950854410923736</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1206849418.894706</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1976775475.513217</v>
+        <v>2152659051.194113</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1000342456163546</v>
+        <v>0.08254396438994187</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04591629536923711</v>
+        <v>0.04660892146546741</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>988387746.2083827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2781821483.92575</v>
+        <v>3411785493.040215</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1440374830584624</v>
+        <v>0.1274956957831253</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04546833138435298</v>
+        <v>0.05110195071847647</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>111</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1390910778.047015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1803905262.214306</v>
+        <v>2473800773.216726</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1068924575986472</v>
+        <v>0.1659787912773002</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02203544240392591</v>
+        <v>0.01868721955074293</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>39</v>
-      </c>
-      <c r="J86" t="n">
-        <v>901952631.4467446</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1043295141.121673</v>
+        <v>1191797340.177959</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1729139202211664</v>
+        <v>0.1554070936325306</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03924524833074323</v>
+        <v>0.02862545593787847</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>521647585.9875101</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3107621013.702917</v>
+        <v>2299577098.528299</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1267986054109794</v>
+        <v>0.120085628185623</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03654391033001356</v>
+        <v>0.02599236950723918</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>117</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1553810547.943419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2195376949.513671</v>
+        <v>3287104769.529629</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1416254289789558</v>
+        <v>0.145129381847876</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02567609906928856</v>
+        <v>0.0286919415346085</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>100</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1097688571.839134</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1869756189.116796</v>
+        <v>1695333486.030732</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09121345730030232</v>
+        <v>0.1116941378674233</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05100663370896749</v>
+        <v>0.04909467231274995</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>934878140.9377873</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2022358246.356172</v>
+        <v>1551949088.122261</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1773586023951664</v>
+        <v>0.1562969644084105</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03892250657894899</v>
+        <v>0.05285522922637848</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1011179092.463539</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2719501786.701021</v>
+        <v>2263318497.134988</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1064772978207527</v>
+        <v>0.07534427596717931</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03317695747948411</v>
+        <v>0.03532557992815746</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>76</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1359750893.866576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3651387718.118845</v>
+        <v>4442907470.500298</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1247909149875354</v>
+        <v>0.1062085919628486</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03973046099028109</v>
+        <v>0.05291878927859445</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1825693882.229829</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1751692121.392297</v>
+        <v>2102673525.71523</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1240663898698066</v>
+        <v>0.1316355877151812</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02959159853128765</v>
+        <v>0.03916882093825862</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>875846026.7112081</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3252118158.882673</v>
+        <v>2456828288.913594</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1250763062108185</v>
+        <v>0.1127602517956187</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04296066749589361</v>
+        <v>0.05229591317672579</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>72</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1626059060.829791</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2381865566.450183</v>
+        <v>2364507987.402862</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1253545111155882</v>
+        <v>0.09207511885331503</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04573589383764897</v>
+        <v>0.04151065489885736</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1190932729.438834</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4537801171.54853</v>
+        <v>4327657139.297842</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1141966113378552</v>
+        <v>0.1117717895694766</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02043861537894992</v>
+        <v>0.02364972904943547</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>94</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2268900685.40532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2837949452.402934</v>
+        <v>3206189239.157897</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09823100651259653</v>
+        <v>0.124880527360541</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03289986612865401</v>
+        <v>0.02925113247041502</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>78</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1418974699.896732</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2814472076.220417</v>
+        <v>2371873126.376157</v>
       </c>
       <c r="F99" t="n">
-        <v>0.138365775671099</v>
+        <v>0.1252811954729716</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0217419874427905</v>
+        <v>0.02841691420828266</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>92</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1407236010.593287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4631161547.898005</v>
+        <v>3448067374.187968</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1183898896783863</v>
+        <v>0.1794527167435204</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02486708536944169</v>
+        <v>0.01933158427522602</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>91</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2315580895.024351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2773536777.172551</v>
+        <v>2788852698.579733</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1680933243695198</v>
+        <v>0.1430337740495932</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04023599198478418</v>
+        <v>0.05678580628291751</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>117</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1386768447.691149</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_295.xlsx
+++ b/output/fit_clients/fit_round_295.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2360284916.34063</v>
+        <v>1620998659.22104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1126824906443124</v>
+        <v>0.08020758891040705</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03492916339382077</v>
+        <v>0.03995768376272216</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2128715122.223512</v>
+        <v>2017488585.219965</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1425063527334888</v>
+        <v>0.1541675828930888</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04838144868451229</v>
+        <v>0.03737016221757237</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3791444850.786304</v>
+        <v>4075071657.777606</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1489272077713305</v>
+        <v>0.1369914004887854</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03057702265084358</v>
+        <v>0.02353780402546971</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3571371052.260557</v>
+        <v>4220480623.550027</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09093831152742626</v>
+        <v>0.07911442414219139</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05081262583671569</v>
+        <v>0.0490240720164611</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2375945413.332269</v>
+        <v>2823156188.322029</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1115170839625311</v>
+        <v>0.1205625159347649</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05542319564048473</v>
+        <v>0.0469277453202482</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2232283389.336009</v>
+        <v>1953198357.81706</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06880687410341094</v>
+        <v>0.07839788814692131</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03819129151446258</v>
+        <v>0.04683853286668471</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3880334357.807659</v>
+        <v>2553423533.918308</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1375620896587858</v>
+        <v>0.1495018781762582</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03107059174075828</v>
+        <v>0.02210690922008593</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1921367937.34446</v>
+        <v>1849809237.613268</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1577846263243994</v>
+        <v>0.120187593643755</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03581028847933634</v>
+        <v>0.02628117042773668</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5498877492.480986</v>
+        <v>5407499743.272086</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1424373198242161</v>
+        <v>0.1884655174771951</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04653378524918411</v>
+        <v>0.03564880042031128</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3545062309.017634</v>
+        <v>3430061776.812527</v>
       </c>
       <c r="F11" t="n">
-        <v>0.158914150540487</v>
+        <v>0.1411782884113255</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04058849087091938</v>
+        <v>0.04128807215050836</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2508607138.331516</v>
+        <v>2244262799.363865</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1817948959802504</v>
+        <v>0.188117883614088</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05249740056014062</v>
+        <v>0.04939288645713001</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3665764654.668768</v>
+        <v>3875223204.428271</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08742694492578867</v>
+        <v>0.06653102979936541</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0294570259508849</v>
+        <v>0.02002668262988654</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2762628139.538708</v>
+        <v>3002800234.931071</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1639748224133541</v>
+        <v>0.1868986827865875</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04111474741891859</v>
+        <v>0.0311774115750019</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1391003965.129755</v>
+        <v>1573840419.549926</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09971559130374734</v>
+        <v>0.07397130796937665</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03662146980810706</v>
+        <v>0.04169771458052952</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1767470532.528789</v>
+        <v>2106390802.393991</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09838210902698746</v>
+        <v>0.1098545314882515</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05177540902173162</v>
+        <v>0.03852649813951285</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3747618540.582352</v>
+        <v>3579912024.504189</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1487703314388723</v>
+        <v>0.1171851797131108</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04435556055197765</v>
+        <v>0.03508932843528396</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3586918345.348501</v>
+        <v>3244308659.235894</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1796142084277693</v>
+        <v>0.125568147123093</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02741382342048901</v>
+        <v>0.02267277174547591</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>913219163.027438</v>
+        <v>858602734.2176964</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1880262403642423</v>
+        <v>0.1578378252075628</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01662524005159863</v>
+        <v>0.01723039379307559</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2443037375.839984</v>
+        <v>2254430610.64478</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1315883782353851</v>
+        <v>0.1471466163979718</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02014107181539163</v>
+        <v>0.01979208209395911</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1671145444.879941</v>
+        <v>2378487788.043606</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09739715439696889</v>
+        <v>0.0977050494149358</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03635873422328742</v>
+        <v>0.04094283079044113</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3226870591.58799</v>
+        <v>3408294728.631744</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1305518848802249</v>
+        <v>0.1395790548424939</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03538779343686595</v>
+        <v>0.0451374108983453</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1074453086.210341</v>
+        <v>1268468930.167247</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1741225176640998</v>
+        <v>0.1163276767141286</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05082906394547159</v>
+        <v>0.03319997852354253</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3167132650.875391</v>
+        <v>3355600549.981833</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09146180976540232</v>
+        <v>0.1394477345475486</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03512364775473419</v>
+        <v>0.02300402335213064</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1075502203.725914</v>
+        <v>1485932573.863909</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1211364689700476</v>
+        <v>0.08865426006991503</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03017218261360028</v>
+        <v>0.02844982338649942</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1137851283.866327</v>
+        <v>1294686419.188976</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1100672656376852</v>
+        <v>0.1222460744120924</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03301400092530277</v>
+        <v>0.02890651876299648</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4416868296.941689</v>
+        <v>4726356745.061344</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1401720941301406</v>
+        <v>0.1052618967921049</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02129255782056465</v>
+        <v>0.02648698503957303</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3501183497.773277</v>
+        <v>3120650918.005842</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1005648864436619</v>
+        <v>0.1345069148454646</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03132784750841021</v>
+        <v>0.04455363733424644</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3921008383.544607</v>
+        <v>4772543177.800115</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1120554668927608</v>
+        <v>0.1123660745263894</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03214723270487277</v>
+        <v>0.04098742854153416</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2025674980.825726</v>
+        <v>2131069789.910649</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1006828050335809</v>
+        <v>0.1113069570433732</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03141675185348949</v>
+        <v>0.03236296036088347</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1100508565.883198</v>
+        <v>1473440140.925335</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09444525347367123</v>
+        <v>0.09307281588085643</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05157219444544111</v>
+        <v>0.04611991260483739</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1794433417.141595</v>
+        <v>1742998119.751142</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07343461528288574</v>
+        <v>0.09014552728992456</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03397609119174509</v>
+        <v>0.02406349250233341</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2782720823.281099</v>
+        <v>2737656157.426866</v>
       </c>
       <c r="F33" t="n">
-        <v>0.174522017948475</v>
+        <v>0.159232085442296</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04718407670922076</v>
+        <v>0.06130098959176635</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>950277616.5388857</v>
+        <v>1488768223.034403</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1161737970879559</v>
+        <v>0.1026724710594274</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01898859416430983</v>
+        <v>0.02135925729569564</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1227691250.159814</v>
+        <v>1286054901.745816</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07993696361183783</v>
+        <v>0.0981510805609315</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03165902828604801</v>
+        <v>0.04185763385090419</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2054163910.782223</v>
+        <v>1984192986.164235</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1131460949613294</v>
+        <v>0.1262681127933523</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02860134214301844</v>
+        <v>0.02826077531913315</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2032633729.9211</v>
+        <v>2726391979.36299</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06888658494051596</v>
+        <v>0.09173485026559383</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03031328662204008</v>
+        <v>0.03158531676192421</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2027522360.230348</v>
+        <v>1974443642.155218</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1077863232734305</v>
+        <v>0.07467062467373098</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03810800814109731</v>
+        <v>0.02834913587589981</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2099533830.72299</v>
+        <v>1716659044.720362</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1552828678987231</v>
+        <v>0.1778240238641739</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03103485057635211</v>
+        <v>0.02979420443333467</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1146920828.171858</v>
+        <v>1335878869.119396</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1246197568611398</v>
+        <v>0.1054082548944469</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05060419212703911</v>
+        <v>0.05814742267662534</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2305331811.054616</v>
+        <v>2778271100.643381</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1664748955533865</v>
+        <v>0.102323762389448</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03861746874309503</v>
+        <v>0.03444084664954743</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3863910133.970461</v>
+        <v>4019831853.134387</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1092209101808421</v>
+        <v>0.1179438598747161</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03350144152037721</v>
+        <v>0.04250212622889371</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2252951828.191863</v>
+        <v>2526543354.200749</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1522434242667757</v>
+        <v>0.1666445698433812</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02536978923169315</v>
+        <v>0.01796526999410608</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1565623982.423635</v>
+        <v>1988608460.044492</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08384902675308507</v>
+        <v>0.07006209142379907</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03578808436527507</v>
+        <v>0.03652703875461027</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1678875151.590654</v>
+        <v>2443474669.644986</v>
       </c>
       <c r="F45" t="n">
-        <v>0.192259773743137</v>
+        <v>0.1900481072678248</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05505518463820774</v>
+        <v>0.03480617766556304</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4542410869.988516</v>
+        <v>4097813041.118944</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1260147750008889</v>
+        <v>0.1690952094590044</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0587493469940845</v>
+        <v>0.0399428849018389</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3928248617.726758</v>
+        <v>4146185593.912468</v>
       </c>
       <c r="F47" t="n">
-        <v>0.139595677276344</v>
+        <v>0.1445748668750079</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05714136204352388</v>
+        <v>0.05748396969319392</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2939133583.794325</v>
+        <v>3780859177.027561</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07093342476874365</v>
+        <v>0.07525328276972169</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03006733223883091</v>
+        <v>0.02520596781525053</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1896855365.765057</v>
+        <v>1254463042.526477</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1787518209434098</v>
+        <v>0.1264137822594506</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04485284045221826</v>
+        <v>0.03722064483812484</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4181489301.360295</v>
+        <v>2868621312.937562</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1379884758129016</v>
+        <v>0.1166506297338155</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03799533107085919</v>
+        <v>0.05145911359001511</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1050598173.887646</v>
+        <v>1418382105.820646</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1692823335343841</v>
+        <v>0.1223010884328627</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04692542174669984</v>
+        <v>0.04705474588255686</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4225531423.726966</v>
+        <v>3987518088.182539</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1012022296099562</v>
+        <v>0.1202437855987735</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05433783696495579</v>
+        <v>0.04019945309430621</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3765532410.60689</v>
+        <v>3206222283.04389</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1402451039147476</v>
+        <v>0.185097902672537</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02192671258766203</v>
+        <v>0.02376211389926544</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3284796509.362936</v>
+        <v>4886924232.694304</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1625355594792508</v>
+        <v>0.1523263536424566</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04077550319252698</v>
+        <v>0.0333306810711502</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3834489942.531424</v>
+        <v>4765738938.140233</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1680271619852323</v>
+        <v>0.1540731447031451</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03088358710319308</v>
+        <v>0.02672527357518691</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1493110215.940991</v>
+        <v>1470309027.066404</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1338579836757361</v>
+        <v>0.146766819632429</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03765779599491344</v>
+        <v>0.0458866779522359</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4017571141.166194</v>
+        <v>4225324550.890177</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1132020834489011</v>
+        <v>0.1139709734275947</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02096605031957085</v>
+        <v>0.02246540168162902</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1871315053.157068</v>
+        <v>1667673159.095952</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1752760895419497</v>
+        <v>0.1798116167304952</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03955045517605597</v>
+        <v>0.03347690122023386</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4993287692.823155</v>
+        <v>4853078564.354036</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08984359398549902</v>
+        <v>0.1043391254961699</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03015927715073465</v>
+        <v>0.04395058663062251</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3738173355.176114</v>
+        <v>2612653793.683822</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1511373706663771</v>
+        <v>0.1264030277289128</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02933713917445093</v>
+        <v>0.02070378278357429</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3150391453.201206</v>
+        <v>2720227670.355473</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1350014584406693</v>
+        <v>0.1520541855589487</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02467772320538104</v>
+        <v>0.02626699555735536</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1598684206.241326</v>
+        <v>1940651985.411778</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1733961684726018</v>
+        <v>0.1472669808243523</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04542077436057114</v>
+        <v>0.04754189860299542</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4834557292.616808</v>
+        <v>5591073473.16777</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08513177468646733</v>
+        <v>0.09786875914314368</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03870819132218638</v>
+        <v>0.0369750569880568</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3803678407.518094</v>
+        <v>4832091048.820895</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1727438531121855</v>
+        <v>0.1805140794305035</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03155178584896656</v>
+        <v>0.0347755279751006</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5116241690.140934</v>
+        <v>4315162707.120828</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1624322470088189</v>
+        <v>0.1416977439347056</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02392482966527754</v>
+        <v>0.02293264186799899</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5601375019.787398</v>
+        <v>4479665048.942727</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1261178153202511</v>
+        <v>0.1124955635229301</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03776235333221986</v>
+        <v>0.03660026610209686</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3145077032.030252</v>
+        <v>3142796013.020239</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08883556810689078</v>
+        <v>0.06941825072375071</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03342528280375298</v>
+        <v>0.03921744737877127</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4846351173.536638</v>
+        <v>4887702139.065456</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1167056464956111</v>
+        <v>0.1167385491162659</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03647173910424637</v>
+        <v>0.0489486144838624</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1850613275.466802</v>
+        <v>2368064372.232857</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1282895886551121</v>
+        <v>0.1665989142482261</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05181088629101972</v>
+        <v>0.0445888362320548</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3252974030.229393</v>
+        <v>2405691533.634114</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1011956861931938</v>
+        <v>0.07074058794663236</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04170964671921901</v>
+        <v>0.03146080289049363</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4658348599.365298</v>
+        <v>4274125896.553453</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1227134146571683</v>
+        <v>0.1127078540098361</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0304032625711807</v>
+        <v>0.03219657881535595</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1670446951.647446</v>
+        <v>1731579034.977592</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07069264407423559</v>
+        <v>0.07171224334008763</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03742624937218707</v>
+        <v>0.04981570747024337</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3300817454.631169</v>
+        <v>2648107079.008483</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08916108666616618</v>
+        <v>0.1034136926916038</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04795056216848851</v>
+        <v>0.05110582547119436</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3123709196.516997</v>
+        <v>3869022024.554358</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1783598568348969</v>
+        <v>0.175168833594863</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03221930416633894</v>
+        <v>0.03248096821206777</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1817260678.531994</v>
+        <v>1967749078.540587</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1426886378024891</v>
+        <v>0.127388909977343</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02860288453262519</v>
+        <v>0.02890922317128222</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5158326946.381955</v>
+        <v>3953138849.255013</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08043326801065247</v>
+        <v>0.07970744784455548</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02964976107620676</v>
+        <v>0.0339161005429208</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2251254481.660273</v>
+        <v>2187837993.209012</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1185871294698875</v>
+        <v>0.1295671687643947</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01950680263568259</v>
+        <v>0.02266759548725826</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3752780070.317734</v>
+        <v>3365783497.242547</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1332119117162094</v>
+        <v>0.1063045240659372</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04797274453936077</v>
+        <v>0.0455976952029398</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1417496652.475936</v>
+        <v>1919406625.622144</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1766133482944424</v>
+        <v>0.170783099018866</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03710300833776852</v>
+        <v>0.03669198244331567</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4236340941.687497</v>
+        <v>5024901608.394461</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07315643341723935</v>
+        <v>0.1116343410136606</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03628132899155277</v>
+        <v>0.03622036988706994</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3457716754.676731</v>
+        <v>3625528837.142515</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1347007301912976</v>
+        <v>0.1359058013530708</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02916095511314059</v>
+        <v>0.02083646259592934</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4338528259.211337</v>
+        <v>3587447017.679636</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1919926065045317</v>
+        <v>0.1650660624487895</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0245174985573926</v>
+        <v>0.02402159761478678</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1951351587.895697</v>
+        <v>1744993051.958299</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09616954276088996</v>
+        <v>0.1556705323615934</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02950854410923736</v>
+        <v>0.0310490033801478</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2152659051.194113</v>
+        <v>1937753062.523878</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08254396438994187</v>
+        <v>0.1044768416807795</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04660892146546741</v>
+        <v>0.04922871981963382</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3411785493.040215</v>
+        <v>3199353248.499849</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1274956957831253</v>
+        <v>0.1410462545448881</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05110195071847647</v>
+        <v>0.05290164101815192</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2473800773.216726</v>
+        <v>2210593403.215261</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1659787912773002</v>
+        <v>0.1060319931902995</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01868721955074293</v>
+        <v>0.01714418992789586</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1191797340.177959</v>
+        <v>1474730894.534599</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1554070936325306</v>
+        <v>0.1557249157540016</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02862545593787847</v>
+        <v>0.04143203229668671</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2299577098.528299</v>
+        <v>2842873519.948612</v>
       </c>
       <c r="F88" t="n">
-        <v>0.120085628185623</v>
+        <v>0.1200283359578427</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02599236950723918</v>
+        <v>0.03732836926022069</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3287104769.529629</v>
+        <v>3321075495.551465</v>
       </c>
       <c r="F89" t="n">
-        <v>0.145129381847876</v>
+        <v>0.1309793091058956</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0286919415346085</v>
+        <v>0.03569601076402458</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1695333486.030732</v>
+        <v>2067245813.261489</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1116941378674233</v>
+        <v>0.1100394469056491</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04909467231274995</v>
+        <v>0.04532158131376793</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1551949088.122261</v>
+        <v>1495213230.848249</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1562969644084105</v>
+        <v>0.1313698674462792</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05285522922637848</v>
+        <v>0.04517131398219448</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2263318497.134988</v>
+        <v>2063305586.298807</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07534427596717931</v>
+        <v>0.07295944483692952</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03532557992815746</v>
+        <v>0.03650870694658007</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4442907470.500298</v>
+        <v>3167908958.280389</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1062085919628486</v>
+        <v>0.1125276648536339</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05291878927859445</v>
+        <v>0.04452040952047817</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2102673525.71523</v>
+        <v>2349327843.757349</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1316355877151812</v>
+        <v>0.1594509233859583</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03916882093825862</v>
+        <v>0.03585125022772883</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2456828288.913594</v>
+        <v>3023528428.385044</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1127602517956187</v>
+        <v>0.08942458445871042</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05229591317672579</v>
+        <v>0.04291266646072355</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2364507987.402862</v>
+        <v>1861541674.343748</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09207511885331503</v>
+        <v>0.1404018249488036</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04151065489885736</v>
+        <v>0.04622456900151559</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4327657139.297842</v>
+        <v>3765595830.502791</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1117717895694766</v>
+        <v>0.1569978861048131</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02364972904943547</v>
+        <v>0.01810468051616054</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3206189239.157897</v>
+        <v>3434844213.265722</v>
       </c>
       <c r="F98" t="n">
-        <v>0.124880527360541</v>
+        <v>0.08026785077029255</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02925113247041502</v>
+        <v>0.02337666956756254</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2371873126.376157</v>
+        <v>2106302971.489039</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1252811954729716</v>
+        <v>0.0948228839935774</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02841691420828266</v>
+        <v>0.02991662128902534</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3448067374.187968</v>
+        <v>4594114372.835455</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1794527167435204</v>
+        <v>0.1269344638515387</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01933158427522602</v>
+        <v>0.02821327457931769</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2788852698.579733</v>
+        <v>2706665939.853581</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1430337740495932</v>
+        <v>0.2072481262388298</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05678580628291751</v>
+        <v>0.03547344833930458</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_295.xlsx
+++ b/output/fit_clients/fit_round_295.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1620998659.22104</v>
+        <v>1702328464.903802</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08020758891040705</v>
+        <v>0.1039470738280039</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03995768376272216</v>
+        <v>0.03435525718426542</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2017488585.219965</v>
+        <v>2455686401.217026</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1541675828930888</v>
+        <v>0.1391312770877784</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03737016221757237</v>
+        <v>0.03538962382221533</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4075071657.777606</v>
+        <v>4507482757.409723</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1369914004887854</v>
+        <v>0.1520196905632312</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02353780402546971</v>
+        <v>0.03477117476846851</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>155</v>
+      </c>
+      <c r="J4" t="n">
+        <v>295</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4220480623.550027</v>
+        <v>3320441197.296505</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07911442414219139</v>
+        <v>0.07765122239478317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0490240720164611</v>
+        <v>0.0309227236145323</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>121</v>
+      </c>
+      <c r="J5" t="n">
+        <v>293</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2823156188.322029</v>
+        <v>2400983877.890525</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1205625159347649</v>
+        <v>0.1022849194847984</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0469277453202482</v>
+        <v>0.04271422973675452</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1953198357.81706</v>
+        <v>1927969205.241578</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07839788814692131</v>
+        <v>0.07234799195539371</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04683853286668471</v>
+        <v>0.03015550988588372</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2553423533.918308</v>
+        <v>3948165234.965823</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1495018781762582</v>
+        <v>0.1437019575500463</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02210690922008593</v>
+        <v>0.02242577905455999</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>78</v>
+      </c>
+      <c r="J8" t="n">
+        <v>295</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1849809237.613268</v>
+        <v>1421091684.32003</v>
       </c>
       <c r="F9" t="n">
-        <v>0.120187593643755</v>
+        <v>0.1778104461014609</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02628117042773668</v>
+        <v>0.0312397779495021</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5407499743.272086</v>
+        <v>4287104363.292539</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1884655174771951</v>
+        <v>0.2103790206359072</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03564880042031128</v>
+        <v>0.04074000247817978</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>262</v>
+      </c>
+      <c r="J10" t="n">
+        <v>295</v>
+      </c>
+      <c r="K10" t="n">
+        <v>87.94652032154454</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3430061776.812527</v>
+        <v>3066811995.353225</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1411782884113255</v>
+        <v>0.1513796293443624</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04128807215050836</v>
+        <v>0.03324233349083557</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>118</v>
+      </c>
+      <c r="J11" t="n">
+        <v>289</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2244262799.363865</v>
+        <v>2846881684.201878</v>
       </c>
       <c r="F12" t="n">
-        <v>0.188117883614088</v>
+        <v>0.1609755983788065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04939288645713001</v>
+        <v>0.04794207535899834</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3875223204.428271</v>
+        <v>3494024993.800795</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06653102979936541</v>
+        <v>0.09841949420061755</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02002668262988654</v>
+        <v>0.02144268690480659</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>151</v>
+      </c>
+      <c r="J13" t="n">
+        <v>294</v>
+      </c>
+      <c r="K13" t="n">
+        <v>73.31874424256007</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3002800234.931071</v>
+        <v>3171390715.402322</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1868986827865875</v>
+        <v>0.1243190513983776</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0311774115750019</v>
+        <v>0.04435996212167524</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>62</v>
+      </c>
+      <c r="J14" t="n">
+        <v>294</v>
+      </c>
+      <c r="K14" t="n">
+        <v>68.72672567008583</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1573840419.549926</v>
+        <v>1676787902.634827</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07397130796937665</v>
+        <v>0.09779177057619087</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04169771458052952</v>
+        <v>0.03358410443600933</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2106390802.393991</v>
+        <v>2335162365.549155</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1098545314882515</v>
+        <v>0.07465748305778233</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03852649813951285</v>
+        <v>0.0489861400246667</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3579912024.504189</v>
+        <v>3446333418.156468</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1171851797131108</v>
+        <v>0.1081048294839171</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03508932843528396</v>
+        <v>0.04738464687643757</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>140</v>
+      </c>
+      <c r="J17" t="n">
+        <v>295</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3244308659.235894</v>
+        <v>2779344906.496119</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125568147123093</v>
+        <v>0.1420446161846116</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02267277174547591</v>
+        <v>0.03153132803432534</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>291</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1102,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>858602734.2176964</v>
+        <v>1004859200.648867</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1578378252075628</v>
+        <v>0.13502629009838</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01723039379307559</v>
+        <v>0.02527720197903074</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2254430610.64478</v>
+        <v>2559141008.333794</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1471466163979718</v>
+        <v>0.100975800208511</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01979208209395911</v>
+        <v>0.0252924595079659</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2378487788.043606</v>
+        <v>2050747456.401356</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0977050494149358</v>
+        <v>0.0921284435271259</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04094283079044113</v>
+        <v>0.03682844184648146</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3408294728.631744</v>
+        <v>3780490486.550874</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1395790548424939</v>
+        <v>0.09250150109803545</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0451374108983453</v>
+        <v>0.04914319834067318</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>80</v>
+      </c>
+      <c r="J22" t="n">
+        <v>294</v>
+      </c>
+      <c r="K22" t="n">
+        <v>85.52611987861718</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1268468930.167247</v>
+        <v>1516856602.998092</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1163276767141286</v>
+        <v>0.1354350484843692</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03319997852354253</v>
+        <v>0.04601373518023828</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3355600549.981833</v>
+        <v>3253331541.414921</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1394477345475486</v>
+        <v>0.1404446317261638</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02300402335213064</v>
+        <v>0.02810063941289164</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>87</v>
+      </c>
+      <c r="J24" t="n">
+        <v>292</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1485932573.863909</v>
+        <v>1255079584.504572</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08865426006991503</v>
+        <v>0.08567123669598116</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02844982338649942</v>
+        <v>0.02219666434362026</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1294686419.188976</v>
+        <v>1354696110.006655</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1222460744120924</v>
+        <v>0.1235407628330523</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02890651876299648</v>
+        <v>0.02572215831532862</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4726356745.061344</v>
+        <v>4528656541.350787</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1052618967921049</v>
+        <v>0.1300748116628194</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02648698503957303</v>
+        <v>0.017864286609749</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>121</v>
+      </c>
+      <c r="J27" t="n">
+        <v>295</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3120650918.005842</v>
+        <v>2906996379.548873</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1345069148454646</v>
+        <v>0.1406966488322827</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04455363733424644</v>
+        <v>0.04824454624158136</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>62</v>
+      </c>
+      <c r="J28" t="n">
+        <v>293</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4772543177.800115</v>
+        <v>5717132848.815469</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1123660745263894</v>
+        <v>0.1006441522953298</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04098742854153416</v>
+        <v>0.03940615445786813</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>279</v>
+      </c>
+      <c r="J29" t="n">
+        <v>295</v>
+      </c>
+      <c r="K29" t="n">
+        <v>86.90990683182913</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2131069789.910649</v>
+        <v>1918461133.248406</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1113069570433732</v>
+        <v>0.1254100014922695</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03236296036088347</v>
+        <v>0.02893645215820071</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1473440140.925335</v>
+        <v>1161992483.493048</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09307281588085643</v>
+        <v>0.07838481927034671</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04611991260483739</v>
+        <v>0.03649434285257203</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1742998119.751142</v>
+        <v>1669153597.980837</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09014552728992456</v>
+        <v>0.09094699181804959</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02406349250233341</v>
+        <v>0.03377084786973161</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2737656157.426866</v>
+        <v>2431056510.662006</v>
       </c>
       <c r="F33" t="n">
-        <v>0.159232085442296</v>
+        <v>0.1514452476531473</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06130098959176635</v>
+        <v>0.05766805064539741</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1488768223.034403</v>
+        <v>1534281209.805039</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1026724710594274</v>
+        <v>0.09639886145036659</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02135925729569564</v>
+        <v>0.0236585763206293</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1286054901.745816</v>
+        <v>970062762.8562289</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0981510805609315</v>
+        <v>0.1028584802746907</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04185763385090419</v>
+        <v>0.03175759371729342</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1984192986.164235</v>
+        <v>3211590966.289474</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1262681127933523</v>
+        <v>0.1519793403064219</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02826077531913315</v>
+        <v>0.02035745216861731</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2726391979.36299</v>
+        <v>2609323570.658527</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09173485026559383</v>
+        <v>0.1005802325871954</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03158531676192421</v>
+        <v>0.04210995461544537</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1974443642.155218</v>
+        <v>1957910876.889771</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07467062467373098</v>
+        <v>0.0937151031129726</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02834913587589981</v>
+        <v>0.03870453095744462</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1716659044.720362</v>
+        <v>2113662701.57909</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1778240238641739</v>
+        <v>0.1563721446143794</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02979420443333467</v>
+        <v>0.03085407515466179</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1335878869.119396</v>
+        <v>1489129226.394995</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1054082548944469</v>
+        <v>0.1319733735622489</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05814742267662534</v>
+        <v>0.03871266409286514</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2778271100.643381</v>
+        <v>2199166276.463799</v>
       </c>
       <c r="F41" t="n">
-        <v>0.102323762389448</v>
+        <v>0.1051236869175303</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03444084664954743</v>
+        <v>0.03323697043061805</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4019831853.134387</v>
+        <v>3163322352.256157</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1179438598747161</v>
+        <v>0.1172361368566774</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04250212622889371</v>
+        <v>0.03147147062369291</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>122</v>
+      </c>
+      <c r="J42" t="n">
+        <v>294</v>
+      </c>
+      <c r="K42" t="n">
+        <v>68.67260799535428</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2526543354.200749</v>
+        <v>2200827687.315248</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1666445698433812</v>
+        <v>0.1383161109807869</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01796526999410608</v>
+        <v>0.01759634045319598</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1988608460.044492</v>
+        <v>2350949766.368093</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07006209142379907</v>
+        <v>0.07325681308531547</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03652703875461027</v>
+        <v>0.03606876231805907</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2443474669.644986</v>
+        <v>2427832911.126882</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1900481072678248</v>
+        <v>0.1460649082372601</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03480617766556304</v>
+        <v>0.03397616970139873</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4097813041.118944</v>
+        <v>4916652508.263266</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1690952094590044</v>
+        <v>0.1302763432025069</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0399428849018389</v>
+        <v>0.040757955308269</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>175</v>
+      </c>
+      <c r="J46" t="n">
+        <v>294</v>
+      </c>
+      <c r="K46" t="n">
+        <v>85.04744728921075</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4146185593.912468</v>
+        <v>3497678688.372838</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1445748668750079</v>
+        <v>0.1737218934131641</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05748396969319392</v>
+        <v>0.03851680334230941</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>132</v>
+      </c>
+      <c r="J47" t="n">
+        <v>294</v>
+      </c>
+      <c r="K47" t="n">
+        <v>63.51036378156829</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3780859177.027561</v>
+        <v>3783731862.083183</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07525328276972169</v>
+        <v>0.09625872482036492</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02520596781525053</v>
+        <v>0.02575754478685788</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>147</v>
+      </c>
+      <c r="J48" t="n">
+        <v>295</v>
+      </c>
+      <c r="K48" t="n">
+        <v>92.93022145385639</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1254463042.526477</v>
+        <v>1302461227.685698</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1264137822594506</v>
+        <v>0.1496904411345203</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03722064483812484</v>
+        <v>0.02895182960967756</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2868621312.937562</v>
+        <v>2639194473.388646</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1166506297338155</v>
+        <v>0.1131159282988191</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05145911359001511</v>
+        <v>0.0448759432856291</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>94</v>
+      </c>
+      <c r="J50" t="n">
+        <v>292</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1418382105.820646</v>
+        <v>1421318436.601493</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1223010884328627</v>
+        <v>0.1878923854714699</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04705474588255686</v>
+        <v>0.03732448532966746</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3987518088.182539</v>
+        <v>3252525739.587538</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1202437855987735</v>
+        <v>0.09157709304695139</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04019945309430621</v>
+        <v>0.05110386035986687</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>182</v>
+      </c>
+      <c r="J52" t="n">
+        <v>293</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3206222283.04389</v>
+        <v>2493617738.534051</v>
       </c>
       <c r="F53" t="n">
-        <v>0.185097902672537</v>
+        <v>0.1929675825440162</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02376211389926544</v>
+        <v>0.02881297303932794</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>41</v>
+      </c>
+      <c r="J53" t="n">
+        <v>293</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4886924232.694304</v>
+        <v>3189973017.999681</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1523263536424566</v>
+        <v>0.1347995667735428</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0333306810711502</v>
+        <v>0.03431360040964551</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>156</v>
+      </c>
+      <c r="J54" t="n">
+        <v>294</v>
+      </c>
+      <c r="K54" t="n">
+        <v>61.01298957063295</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4765738938.140233</v>
+        <v>4302083336.256774</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1540731447031451</v>
+        <v>0.2089014635567083</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02672527357518691</v>
+        <v>0.02048575036971125</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>135</v>
+      </c>
+      <c r="J55" t="n">
+        <v>294</v>
+      </c>
+      <c r="K55" t="n">
+        <v>86.17334838767498</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1470309027.066404</v>
+        <v>1529287406.051838</v>
       </c>
       <c r="F56" t="n">
-        <v>0.146766819632429</v>
+        <v>0.1025743214857345</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0458866779522359</v>
+        <v>0.0477894296443166</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4225324550.890177</v>
+        <v>3695728019.456707</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1139709734275947</v>
+        <v>0.1466246208814624</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02246540168162902</v>
+        <v>0.02618494146585233</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>119</v>
+      </c>
+      <c r="J57" t="n">
+        <v>295</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1667673159.095952</v>
+        <v>1567578085.49974</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1798116167304952</v>
+        <v>0.1593161736205367</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03347690122023386</v>
+        <v>0.03889800584636335</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4853078564.354036</v>
+        <v>4661975313.827502</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1043391254961699</v>
+        <v>0.100236118914217</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04395058663062251</v>
+        <v>0.03816000776964672</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>142</v>
+      </c>
+      <c r="J59" t="n">
+        <v>295</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2612653793.683822</v>
+        <v>3318343821.0446</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1264030277289128</v>
+        <v>0.1501738159472293</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02070378278357429</v>
+        <v>0.02130879392417648</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2720227670.355473</v>
+        <v>3037016910.73554</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1520541855589487</v>
+        <v>0.1127985488587407</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02626699555735536</v>
+        <v>0.03196487695580624</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1940651985.411778</v>
+        <v>1914301357.828272</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1472669808243523</v>
+        <v>0.1715574246936672</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04754189860299542</v>
+        <v>0.04643698460006374</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5591073473.16777</v>
+        <v>4942043538.18627</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09786875914314368</v>
+        <v>0.09785933871702372</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0369750569880568</v>
+        <v>0.04299303572330163</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>143</v>
+      </c>
+      <c r="J63" t="n">
+        <v>295</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4832091048.820895</v>
+        <v>4954529766.319974</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1805140794305035</v>
+        <v>0.1878497225982451</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0347755279751006</v>
+        <v>0.03080396982174433</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>145</v>
+      </c>
+      <c r="J64" t="n">
+        <v>294</v>
+      </c>
+      <c r="K64" t="n">
+        <v>83.15604544203602</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4315162707.120828</v>
+        <v>5726538534.298539</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1416977439347056</v>
+        <v>0.1257104616815012</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02293264186799899</v>
+        <v>0.03178391801556916</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>235</v>
+      </c>
+      <c r="J65" t="n">
+        <v>295</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4479665048.942727</v>
+        <v>4892791514.973956</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1124955635229301</v>
+        <v>0.1412065378236231</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03660026610209686</v>
+        <v>0.03856748903114741</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>145</v>
+      </c>
+      <c r="J66" t="n">
+        <v>295</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3142796013.020239</v>
+        <v>3463822809.997919</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06941825072375071</v>
+        <v>0.09693191961575011</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03921744737877127</v>
+        <v>0.03803027680305174</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>295</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2835,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4887702139.065456</v>
+        <v>3767847814.951992</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1167385491162659</v>
+        <v>0.1380213413807093</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0489486144838624</v>
+        <v>0.04273716277857294</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>156</v>
+      </c>
+      <c r="J68" t="n">
+        <v>294</v>
+      </c>
+      <c r="K68" t="n">
+        <v>84.23094944621597</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2368064372.232857</v>
+        <v>2455861995.831481</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1665989142482261</v>
+        <v>0.1127879015534606</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0445888362320548</v>
+        <v>0.06022058934785124</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2405691533.634114</v>
+        <v>2871971064.769359</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07074058794663236</v>
+        <v>0.0973927708436219</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03146080289049363</v>
+        <v>0.04810228443275091</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>43</v>
+      </c>
+      <c r="J70" t="n">
+        <v>291</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4274125896.553453</v>
+        <v>3597477502.181213</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1127078540098361</v>
+        <v>0.1278309875943331</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03219657881535595</v>
+        <v>0.02083197170922692</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>221</v>
+      </c>
+      <c r="J71" t="n">
+        <v>294</v>
+      </c>
+      <c r="K71" t="n">
+        <v>77.67853104854078</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1731579034.977592</v>
+        <v>1371097985.75883</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07171224334008763</v>
+        <v>0.1068409999862521</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04981570747024337</v>
+        <v>0.0400850437847679</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2648107079.008483</v>
+        <v>3495325950.530077</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1034136926916038</v>
+        <v>0.08491755609580322</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05110582547119436</v>
+        <v>0.05079527475198038</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>19</v>
+      </c>
+      <c r="J73" t="n">
+        <v>295</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3869022024.554358</v>
+        <v>3596839102.400321</v>
       </c>
       <c r="F74" t="n">
-        <v>0.175168833594863</v>
+        <v>0.14030254822581</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03248096821206777</v>
+        <v>0.03135547901849729</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>79</v>
+      </c>
+      <c r="J74" t="n">
+        <v>295</v>
+      </c>
+      <c r="K74" t="n">
+        <v>88.10140926664246</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1967749078.540587</v>
+        <v>2348366928.597423</v>
       </c>
       <c r="F75" t="n">
-        <v>0.127388909977343</v>
+        <v>0.1261175104958673</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02890922317128222</v>
+        <v>0.03685551218683183</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3953138849.255013</v>
+        <v>4349799885.636898</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07970744784455548</v>
+        <v>0.08012812328134464</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0339161005429208</v>
+        <v>0.0264772464829295</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>138</v>
+      </c>
+      <c r="J76" t="n">
+        <v>295</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2187837993.209012</v>
+        <v>1956492540.930759</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1295671687643947</v>
+        <v>0.1816383698919143</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02266759548725826</v>
+        <v>0.02800400246472616</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3365783497.242547</v>
+        <v>4443688358.448543</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1063045240659372</v>
+        <v>0.0929752524241217</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0455976952029398</v>
+        <v>0.04103551337079885</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>147</v>
+      </c>
+      <c r="J78" t="n">
+        <v>294</v>
+      </c>
+      <c r="K78" t="n">
+        <v>85.57986522723257</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1919406625.622144</v>
+        <v>1605013958.134717</v>
       </c>
       <c r="F79" t="n">
-        <v>0.170783099018866</v>
+        <v>0.1115941032372556</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03669198244331567</v>
+        <v>0.03192818773918358</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3263,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5024901608.394461</v>
+        <v>4560107798.206655</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1116343410136606</v>
+        <v>0.1045584090548343</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03622036988706994</v>
+        <v>0.03061768936667446</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>144</v>
+      </c>
+      <c r="J80" t="n">
+        <v>295</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3625528837.142515</v>
+        <v>4169752192.877244</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1359058013530708</v>
+        <v>0.1270427067986166</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02083646259592934</v>
+        <v>0.02673120680268191</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>135</v>
+      </c>
+      <c r="J81" t="n">
+        <v>295</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3587447017.679636</v>
+        <v>4850659941.43</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1650660624487895</v>
+        <v>0.1756054509060792</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02402159761478678</v>
+        <v>0.02326659192072879</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>216</v>
+      </c>
+      <c r="J82" t="n">
+        <v>294</v>
+      </c>
+      <c r="K82" t="n">
+        <v>85.98509163528156</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1744993051.958299</v>
+        <v>1544971643.514918</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1556705323615934</v>
+        <v>0.1574307231021453</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0310490033801478</v>
+        <v>0.03271765456716821</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1937753062.523878</v>
+        <v>1669741801.968617</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1044768416807795</v>
+        <v>0.09013376585881737</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04922871981963382</v>
+        <v>0.03546825855030473</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3199353248.499849</v>
+        <v>3354696136.316711</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1410462545448881</v>
+        <v>0.1180245977648982</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05290164101815192</v>
+        <v>0.05043804498543935</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2210593403.215261</v>
+        <v>1728282865.826102</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1060319931902995</v>
+        <v>0.1157180290955624</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01714418992789586</v>
+        <v>0.01709672009519596</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1474730894.534599</v>
+        <v>1430219339.35875</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1557249157540016</v>
+        <v>0.1581638704424563</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04143203229668671</v>
+        <v>0.0350977745752187</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2842873519.948612</v>
+        <v>2280236040.16143</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1200283359578427</v>
+        <v>0.1175131768170255</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03732836926022069</v>
+        <v>0.02964468780906901</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>41</v>
+      </c>
+      <c r="J88" t="n">
+        <v>284</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3321075495.551465</v>
+        <v>3369358689.122581</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1309793091058956</v>
+        <v>0.1041982345356083</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03569601076402458</v>
+        <v>0.03983078095532932</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2067245813.261489</v>
+        <v>2044197370.237749</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1100394469056491</v>
+        <v>0.134012481260384</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04532158131376793</v>
+        <v>0.03536617244723191</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1495213230.848249</v>
+        <v>1541760396.645619</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1313698674462792</v>
+        <v>0.1854732131036306</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04517131398219448</v>
+        <v>0.04228656390442168</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2063305586.298807</v>
+        <v>2671622402.500989</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07295944483692952</v>
+        <v>0.0826400703885999</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03650870694658007</v>
+        <v>0.04122258568312216</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3167908958.280389</v>
+        <v>4526935440.252009</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1125276648536339</v>
+        <v>0.1355279722725536</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04452040952047817</v>
+        <v>0.04575326160979895</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>130</v>
+      </c>
+      <c r="J93" t="n">
+        <v>295</v>
+      </c>
+      <c r="K93" t="n">
+        <v>86.84301924928951</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2349327843.757349</v>
+        <v>2198896703.260068</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1594509233859583</v>
+        <v>0.1271383576420681</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03585125022772883</v>
+        <v>0.03103584157867547</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3023528428.385044</v>
+        <v>2055244688.663068</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08942458445871042</v>
+        <v>0.1277746195280099</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04291266646072355</v>
+        <v>0.04214595135655749</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1861541674.343748</v>
+        <v>1653201716.230016</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1404018249488036</v>
+        <v>0.1211775983879806</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04622456900151559</v>
+        <v>0.03248758010224478</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3765595830.502791</v>
+        <v>3995227477.207814</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1569978861048131</v>
+        <v>0.1201560824338816</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01810468051616054</v>
+        <v>0.02923819070012801</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>146</v>
+      </c>
+      <c r="J97" t="n">
+        <v>294</v>
+      </c>
+      <c r="K97" t="n">
+        <v>86.5105465212409</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3434844213.265722</v>
+        <v>2713654956.76691</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08026785077029255</v>
+        <v>0.07979478255438251</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02337666956756254</v>
+        <v>0.02439220671888531</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>72</v>
+      </c>
+      <c r="J98" t="n">
+        <v>293</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2106302971.489039</v>
+        <v>2154304563.37067</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0948228839935774</v>
+        <v>0.1296070075872517</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02991662128902534</v>
+        <v>0.02862036239180032</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4594114372.835455</v>
+        <v>3795623506.738992</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1269344638515387</v>
+        <v>0.1652188352661605</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02821327457931769</v>
+        <v>0.01893199825671291</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>128</v>
+      </c>
+      <c r="J100" t="n">
+        <v>294</v>
+      </c>
+      <c r="K100" t="n">
+        <v>84.51012151280787</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2706665939.853581</v>
+        <v>2782475112.122534</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2072481262388298</v>
+        <v>0.1796133230075317</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03547344833930458</v>
+        <v>0.03854373899776556</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
